--- a/com.webapps.automate/excel/testdata.xlsx
+++ b/com.webapps.automate/excel/testdata.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Username</t>
   </si>
@@ -50,6 +51,36 @@
   </si>
   <si>
     <t>Kumar</t>
+  </si>
+  <si>
+    <t>DepartMonth</t>
+  </si>
+  <si>
+    <t>DepartDate</t>
+  </si>
+  <si>
+    <t>ReturnDate</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>mac@donald.com</t>
+  </si>
+  <si>
+    <t>McDonald@123</t>
   </si>
 </sst>
 </file>
@@ -387,15 +418,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -415,12 +446,21 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -428,7 +468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -475,4 +515,61 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>